--- a/biology/Zoologie/Coucou_jacobin/Coucou_jacobin.xlsx
+++ b/biology/Zoologie/Coucou_jacobin/Coucou_jacobin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Clamator jacobinus
 Le Coucou jacobin (Clamator jacobinus) est une espèce de Coucous, oiseaux de la famille des Cuculidae.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Coucou jacobin est un grand coucou de 33 cm de long. Les adultes ont une crête et une longue queue. Ils se présentent sous deux formes colorées: la forme claire est noire avec le ventre blanc alors que la forme sombre est complètement noire, sauf une petite tache blanche sur les ailes pour les deux formes. Les juvéniles ont le dos brun et le ventre blanc jaunâtre.
 </t>
@@ -543,7 +557,9 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>D'après la liste d'Alan P. Peterson, 3 sous-espèces ont été décrites :
 Clamator jacobinus jacobinus (Boddaert, 1783)
@@ -576,7 +592,9 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Il se reproduit en Afrique subsaharienne, en Inde, au Sri Lanka et en Birmanie. Il migre sur de courtes distances. Les oiseaux qui vivent dans des latitudes assez au nord et en altitude en été, les quittent pour des régions plus chaudes et plus humides en hiver.
 C'est un oiseau des maquis, des zones humides et des zones de culture. Il parasite les nids des autres oiseaux, et pond son œuf unique le plus souvent dans les nids de Timaliidae.
